--- a/backend/schemas/output/excel/xlsx/notes-to-sefa-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/notes-to-sefa-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="A640812297F" lockStructure="1"/>
+  <workbookProtection workbookPassword="5A036331E9E" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -480,7 +480,7 @@
       <c r="C2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A640812297F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5A036331E9E"/>
   <dataValidations count="1">
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N/Y&amp;N" error="Must be 'Y' or 'N' or 'Y&amp;N'" type="list">
       <formula1>"Y,N,Y&amp;N"</formula1>
@@ -24517,7 +24517,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A640812297F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5A036331E9E"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -24550,7 +24550,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A640812297F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5A036331E9E"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>
